--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H2">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J2">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>44.8428809017011</v>
+        <v>5.914580333333333</v>
       </c>
       <c r="N2">
-        <v>44.8428809017011</v>
+        <v>17.743741</v>
       </c>
       <c r="O2">
-        <v>0.5941551511245047</v>
+        <v>0.07170723223214719</v>
       </c>
       <c r="P2">
-        <v>0.5941551511245047</v>
+        <v>0.07170723223214717</v>
       </c>
       <c r="Q2">
-        <v>7789.899734110871</v>
+        <v>1088.653570317484</v>
       </c>
       <c r="R2">
-        <v>7789.899734110871</v>
+        <v>9797.882132857352</v>
       </c>
       <c r="S2">
-        <v>0.3810524982788048</v>
+        <v>0.04668503478717903</v>
       </c>
       <c r="T2">
-        <v>0.3810524982788048</v>
+        <v>0.04668503478717903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>173.715416527027</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H3">
-        <v>173.715416527027</v>
+        <v>552.188072</v>
       </c>
       <c r="I3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J3">
-        <v>0.6413350074599548</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.6304711627066</v>
+        <v>44.940909</v>
       </c>
       <c r="N3">
-        <v>30.6304711627066</v>
+        <v>134.822727</v>
       </c>
       <c r="O3">
-        <v>0.4058448488754954</v>
+        <v>0.5448549206821932</v>
       </c>
       <c r="P3">
-        <v>0.4058448488754954</v>
+        <v>0.5448549206821931</v>
       </c>
       <c r="Q3">
-        <v>5320.985056448666</v>
+        <v>8271.944631545815</v>
       </c>
       <c r="R3">
-        <v>5320.985056448666</v>
+        <v>74447.50168391234</v>
       </c>
       <c r="S3">
-        <v>0.26028250918115</v>
+        <v>0.3547281094836394</v>
       </c>
       <c r="T3">
-        <v>0.26028250918115</v>
+        <v>0.3547281094836394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.9446226060136</v>
+        <v>184.0626906666667</v>
       </c>
       <c r="H4">
-        <v>56.9446226060136</v>
+        <v>552.188072</v>
       </c>
       <c r="I4">
-        <v>0.2102322332350399</v>
+        <v>0.6510505751503485</v>
       </c>
       <c r="J4">
-        <v>0.2102322332350399</v>
+        <v>0.6510505751503486</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>44.8428809017011</v>
+        <v>31.626851</v>
       </c>
       <c r="N4">
-        <v>44.8428809017011</v>
+        <v>94.88055300000001</v>
       </c>
       <c r="O4">
-        <v>0.5941551511245047</v>
+        <v>0.3834378470856596</v>
       </c>
       <c r="P4">
-        <v>0.5941551511245047</v>
+        <v>0.3834378470856596</v>
       </c>
       <c r="Q4">
-        <v>2553.560929513784</v>
+        <v>5821.323292373758</v>
       </c>
       <c r="R4">
-        <v>2553.560929513784</v>
+        <v>52391.90963136382</v>
       </c>
       <c r="S4">
-        <v>0.1249105643090072</v>
+        <v>0.2496374308795301</v>
       </c>
       <c r="T4">
-        <v>0.1249105643090072</v>
+        <v>0.2496374308795301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.9446226060136</v>
+        <v>57.4434</v>
       </c>
       <c r="H5">
-        <v>56.9446226060136</v>
+        <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J5">
-        <v>0.2102322332350399</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>30.6304711627066</v>
+        <v>5.914580333333333</v>
       </c>
       <c r="N5">
-        <v>30.6304711627066</v>
+        <v>17.743741</v>
       </c>
       <c r="O5">
-        <v>0.4058448488754954</v>
+        <v>0.07170723223214719</v>
       </c>
       <c r="P5">
-        <v>0.4058448488754954</v>
+        <v>0.07170723223214717</v>
       </c>
       <c r="Q5">
-        <v>1744.24062060471</v>
+        <v>339.7536039198</v>
       </c>
       <c r="R5">
-        <v>1744.24062060471</v>
+        <v>3057.7824352782</v>
       </c>
       <c r="S5">
-        <v>0.08532166892603266</v>
+        <v>0.01456974858718339</v>
       </c>
       <c r="T5">
-        <v>0.08532166892603266</v>
+        <v>0.01456974858718339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.2052878900969</v>
+        <v>57.4434</v>
       </c>
       <c r="H6">
-        <v>40.2052878900969</v>
+        <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.1484327593050052</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J6">
-        <v>0.1484327593050052</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.8428809017011</v>
+        <v>44.940909</v>
       </c>
       <c r="N6">
-        <v>44.8428809017011</v>
+        <v>134.822727</v>
       </c>
       <c r="O6">
-        <v>0.5941551511245047</v>
+        <v>0.5448549206821932</v>
       </c>
       <c r="P6">
-        <v>0.5941551511245047</v>
+        <v>0.5448549206821931</v>
       </c>
       <c r="Q6">
-        <v>1802.920936474221</v>
+        <v>2581.5586120506</v>
       </c>
       <c r="R6">
-        <v>1802.920936474221</v>
+        <v>23234.0275084554</v>
       </c>
       <c r="S6">
-        <v>0.08819208853669259</v>
+        <v>0.1107056982080871</v>
       </c>
       <c r="T6">
-        <v>0.08819208853669259</v>
+        <v>0.1107056982080871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.2052878900969</v>
+        <v>57.4434</v>
       </c>
       <c r="H7">
-        <v>40.2052878900969</v>
+        <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.1484327593050052</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="J7">
-        <v>0.1484327593050052</v>
+        <v>0.2031838091312023</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.6304711627066</v>
+        <v>31.626851</v>
       </c>
       <c r="N7">
-        <v>30.6304711627066</v>
+        <v>94.88055300000001</v>
       </c>
       <c r="O7">
-        <v>0.4058448488754954</v>
+        <v>0.3834378470856596</v>
       </c>
       <c r="P7">
-        <v>0.4058448488754954</v>
+        <v>0.3834378470856596</v>
       </c>
       <c r="Q7">
-        <v>1231.50691130593</v>
+        <v>1816.7538527334</v>
       </c>
       <c r="R7">
-        <v>1231.50691130593</v>
+        <v>16350.7846746006</v>
       </c>
       <c r="S7">
-        <v>0.06024067076831262</v>
+        <v>0.07790836233593181</v>
       </c>
       <c r="T7">
-        <v>0.06024067076831262</v>
+        <v>0.07790836233593179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>41.21033366666666</v>
+      </c>
+      <c r="H8">
+        <v>123.631001</v>
+      </c>
+      <c r="I8">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="J8">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>5.914580333333333</v>
+      </c>
+      <c r="N8">
+        <v>17.743741</v>
+      </c>
+      <c r="O8">
+        <v>0.07170723223214719</v>
+      </c>
+      <c r="P8">
+        <v>0.07170723223214717</v>
+      </c>
+      <c r="Q8">
+        <v>243.7418290349712</v>
+      </c>
+      <c r="R8">
+        <v>2193.676461314741</v>
+      </c>
+      <c r="S8">
+        <v>0.01045244885778476</v>
+      </c>
+      <c r="T8">
+        <v>0.01045244885778475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>41.21033366666666</v>
+      </c>
+      <c r="H9">
+        <v>123.631001</v>
+      </c>
+      <c r="I9">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="J9">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>44.940909</v>
+      </c>
+      <c r="N9">
+        <v>134.822727</v>
+      </c>
+      <c r="O9">
+        <v>0.5448549206821932</v>
+      </c>
+      <c r="P9">
+        <v>0.5448549206821931</v>
+      </c>
+      <c r="Q9">
+        <v>1852.029855173303</v>
+      </c>
+      <c r="R9">
+        <v>16668.26869655972</v>
+      </c>
+      <c r="S9">
+        <v>0.07942111299046666</v>
+      </c>
+      <c r="T9">
+        <v>0.07942111299046664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>41.21033366666666</v>
+      </c>
+      <c r="H10">
+        <v>123.631001</v>
+      </c>
+      <c r="I10">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="J10">
+        <v>0.1457656157184491</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>31.626851</v>
+      </c>
+      <c r="N10">
+        <v>94.88055300000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3834378470856596</v>
+      </c>
+      <c r="P10">
+        <v>0.3834378470856596</v>
+      </c>
+      <c r="Q10">
+        <v>1303.35308253595</v>
+      </c>
+      <c r="R10">
+        <v>11730.17774282355</v>
+      </c>
+      <c r="S10">
+        <v>0.05589205387019772</v>
+      </c>
+      <c r="T10">
+        <v>0.05589205387019771</v>
       </c>
     </row>
   </sheetData>
